--- a/Table_S3.xlsx
+++ b/Table_S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrw657\Documents\Projects\Whitehall\RESUBMISSION_XXAUG2021_JCEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BACKUP\Projects\Whitehall\RESUBMISSION_XXAUG2021_JCEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>-0.01 (-0.07; 0.05)</t>
   </si>
@@ -357,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +381,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -491,8 +484,62 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -507,60 +554,131 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -572,11 +690,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,23 +701,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,6 +715,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,733 +1050,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="C12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="D14" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="D16" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="C17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="C19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="D19" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="C20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="D20" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="C21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="D21" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="C22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="D22" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="1" t="s">
+      <c r="E22" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="D23" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="C24" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="D24" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="C25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="D25" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="E25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F25" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+    <row r="26" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="B2:E320">
-    <sortCondition ref="B2:B320"/>
+  <sortState ref="A2:D320">
+    <sortCondition ref="A2:A320"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A25:A46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
